--- a/supplementalData/Table S7.xlsx
+++ b/supplementalData/Table S7.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/Dropbox/_Manuscripts/16 Species Paper/_ToSubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/projects/GitHub/Drosophila14GenomesProject/supplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A10490-E85F-4345-B220-1BBAAC7A8189}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3560" windowWidth="26440" windowHeight="15440"/>
+    <workbookView xWindow="4380" yWindow="3560" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S7-AsmRacon3Pilon3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Dyak.pass.minimap2.racon.x3.pilon.x3.fasta</t>
   </si>
@@ -132,18 +133,6 @@
   </si>
   <si>
     <t>Dmau.pass.minimap2.racon.x3.pilon.x1.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x3.pilon.x3.fasta</t>
-  </si>
-  <si>
-    <t>Dkik</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x3.pilon.x2.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x3.pilon.x1.fasta</t>
   </si>
   <si>
     <t>Deug.pass.minimap2.racon.x3.pilon.x3.fasta</t>
@@ -263,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -328,13 +317,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -649,14 +638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,82 +668,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>77</v>
+      <c r="A1" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="L2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="L2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -798,10 +787,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -845,10 +834,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -892,10 +881,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -939,10 +928,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -986,10 +975,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1033,10 +1022,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -1080,10 +1069,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1127,10 +1116,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -1174,10 +1163,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1221,10 +1210,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1268,10 +1257,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1315,10 +1304,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1362,10 +1351,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1409,10 +1398,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1456,10 +1445,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -1468,34 +1457,34 @@
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>173894927</v>
+        <v>134214723</v>
       </c>
       <c r="G19" s="2">
-        <v>482</v>
+        <v>266</v>
       </c>
       <c r="H19" s="2">
-        <v>744088</v>
+        <v>4739375</v>
       </c>
       <c r="I19" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J19" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L19" s="1">
-        <v>93.9</v>
+        <v>98.6</v>
       </c>
       <c r="M19" s="1">
-        <v>88.4</v>
+        <v>96.9</v>
       </c>
       <c r="N19" s="1">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="O19" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="P19" s="1">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q19" s="1">
         <v>978</v>
@@ -1503,10 +1492,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1515,34 +1504,34 @@
         <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>173677417</v>
+        <v>134174255</v>
       </c>
       <c r="G20" s="2">
-        <v>482</v>
+        <v>266</v>
       </c>
       <c r="H20" s="2">
-        <v>741677</v>
+        <v>4738417</v>
       </c>
       <c r="I20" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J20" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L20" s="1">
-        <v>93.6</v>
+        <v>98.7</v>
       </c>
       <c r="M20" s="1">
-        <v>87.5</v>
+        <v>97</v>
       </c>
       <c r="N20" s="1">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="O20" s="1">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="P20" s="1">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="Q20" s="1">
         <v>978</v>
@@ -1550,10 +1539,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -1562,34 +1551,34 @@
         <v>3</v>
       </c>
       <c r="F21" s="2">
-        <v>173623250</v>
+        <v>134165749</v>
       </c>
       <c r="G21" s="2">
-        <v>482</v>
+        <v>266</v>
       </c>
       <c r="H21" s="2">
-        <v>741655</v>
+        <v>4738483</v>
       </c>
       <c r="I21" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J21" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L21" s="1">
-        <v>93.8</v>
+        <v>98.7</v>
       </c>
       <c r="M21" s="1">
-        <v>87.5</v>
+        <v>97</v>
       </c>
       <c r="N21" s="1">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="O21" s="1">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="P21" s="1">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q21" s="1">
         <v>978</v>
@@ -1597,10 +1586,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -1609,34 +1598,34 @@
         <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>134214723</v>
+        <v>168205341</v>
       </c>
       <c r="G22" s="2">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="H22" s="2">
-        <v>4739375</v>
+        <v>5221278</v>
       </c>
       <c r="I22" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J22" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L22" s="1">
-        <v>98.6</v>
+        <v>97.7</v>
       </c>
       <c r="M22" s="1">
-        <v>96.9</v>
+        <v>95</v>
       </c>
       <c r="N22" s="1">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O22" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P22" s="1">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q22" s="1">
         <v>978</v>
@@ -1644,10 +1633,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -1656,34 +1645,34 @@
         <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>134174255</v>
+        <v>168159509</v>
       </c>
       <c r="G23" s="2">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="H23" s="2">
-        <v>4738417</v>
+        <v>5221004</v>
       </c>
       <c r="I23" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L23" s="1">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="M23" s="1">
-        <v>97</v>
+        <v>95.4</v>
       </c>
       <c r="N23" s="1">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O23" s="1">
         <v>0.1</v>
       </c>
       <c r="P23" s="1">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Q23" s="1">
         <v>978</v>
@@ -1691,10 +1680,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -1703,34 +1692,34 @@
         <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>134165749</v>
+        <v>168142858</v>
       </c>
       <c r="G24" s="2">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="H24" s="2">
-        <v>4738483</v>
+        <v>5220960</v>
       </c>
       <c r="I24" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J24" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L24" s="1">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="M24" s="1">
-        <v>97</v>
+        <v>95.4</v>
       </c>
       <c r="N24" s="1">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O24" s="1">
         <v>0.1</v>
       </c>
       <c r="P24" s="1">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Q24" s="1">
         <v>978</v>
@@ -1738,10 +1727,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -1750,34 +1739,34 @@
         <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>168205341</v>
+        <v>164052471</v>
       </c>
       <c r="G25" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H25" s="2">
-        <v>5221278</v>
+        <v>3429236</v>
       </c>
       <c r="I25" s="2">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="J25" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L25" s="1">
-        <v>97.7</v>
+        <v>96.8</v>
       </c>
       <c r="M25" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N25" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O25" s="1">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="P25" s="1">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q25" s="1">
         <v>978</v>
@@ -1785,10 +1774,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -1797,34 +1786,34 @@
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>168159509</v>
+        <v>163957788</v>
       </c>
       <c r="G26" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H26" s="2">
-        <v>5221004</v>
+        <v>3429094</v>
       </c>
       <c r="I26" s="2">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="J26" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L26" s="1">
         <v>98</v>
       </c>
       <c r="M26" s="1">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="N26" s="1">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O26" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P26" s="1">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q26" s="1">
         <v>978</v>
@@ -1832,10 +1821,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -1844,34 +1833,34 @@
         <v>3</v>
       </c>
       <c r="F27" s="2">
-        <v>168142858</v>
+        <v>163933157</v>
       </c>
       <c r="G27" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H27" s="2">
-        <v>5220960</v>
+        <v>3429058</v>
       </c>
       <c r="I27" s="2">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="J27" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L27" s="1">
         <v>98</v>
       </c>
       <c r="M27" s="1">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="N27" s="1">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O27" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P27" s="1">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q27" s="1">
         <v>978</v>
@@ -1879,10 +1868,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -1891,34 +1880,34 @@
         <v>1</v>
       </c>
       <c r="F28" s="2">
-        <v>164052471</v>
+        <v>159085793</v>
       </c>
       <c r="G28" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H28" s="2">
-        <v>3429236</v>
+        <v>2983361</v>
       </c>
       <c r="I28" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J28" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28" s="1">
-        <v>96.8</v>
+        <v>97.5</v>
       </c>
       <c r="M28" s="1">
-        <v>94</v>
+        <v>95.6</v>
       </c>
       <c r="N28" s="1">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="O28" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="P28" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="1">
         <v>978</v>
@@ -1926,10 +1915,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -1938,34 +1927,34 @@
         <v>2</v>
       </c>
       <c r="F29" s="2">
-        <v>163957788</v>
+        <v>159044975</v>
       </c>
       <c r="G29" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H29" s="2">
-        <v>3429094</v>
+        <v>2983169</v>
       </c>
       <c r="I29" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J29" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L29" s="1">
         <v>98</v>
       </c>
       <c r="M29" s="1">
-        <v>95.3</v>
+        <v>95.8</v>
       </c>
       <c r="N29" s="1">
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O29" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P29" s="1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q29" s="1">
         <v>978</v>
@@ -1973,10 +1962,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
@@ -1985,34 +1974,34 @@
         <v>3</v>
       </c>
       <c r="F30" s="2">
-        <v>163933157</v>
+        <v>159031139</v>
       </c>
       <c r="G30" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H30" s="2">
-        <v>3429058</v>
+        <v>2983193</v>
       </c>
       <c r="I30" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J30" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L30" s="1">
         <v>98</v>
       </c>
       <c r="M30" s="1">
-        <v>95.3</v>
+        <v>95.8</v>
       </c>
       <c r="N30" s="1">
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O30" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P30" s="1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q30" s="1">
         <v>978</v>
@@ -2020,10 +2009,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -2032,34 +2021,34 @@
         <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>159085793</v>
+        <v>138181178</v>
       </c>
       <c r="G31" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H31" s="2">
-        <v>2983361</v>
+        <v>7714085</v>
       </c>
       <c r="I31" s="2">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="J31" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L31" s="1">
-        <v>97.5</v>
+        <v>98.5</v>
       </c>
       <c r="M31" s="1">
-        <v>95.6</v>
+        <v>96.8</v>
       </c>
       <c r="N31" s="1">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="O31" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P31" s="1">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="Q31" s="1">
         <v>978</v>
@@ -2067,10 +2056,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -2079,34 +2068,34 @@
         <v>2</v>
       </c>
       <c r="F32" s="2">
-        <v>159044975</v>
+        <v>138128841</v>
       </c>
       <c r="G32" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H32" s="2">
-        <v>2983169</v>
+        <v>7712252</v>
       </c>
       <c r="I32" s="2">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="J32" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L32" s="1">
-        <v>98</v>
+        <v>98.7</v>
       </c>
       <c r="M32" s="1">
-        <v>95.8</v>
+        <v>97</v>
       </c>
       <c r="N32" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="O32" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P32" s="1">
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q32" s="1">
         <v>978</v>
@@ -2114,10 +2103,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
@@ -2126,34 +2115,34 @@
         <v>3</v>
       </c>
       <c r="F33" s="2">
-        <v>159031139</v>
+        <v>138120607</v>
       </c>
       <c r="G33" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H33" s="2">
-        <v>2983193</v>
+        <v>7712364</v>
       </c>
       <c r="I33" s="2">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="J33" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L33" s="1">
-        <v>98</v>
+        <v>98.7</v>
       </c>
       <c r="M33" s="1">
-        <v>95.8</v>
+        <v>97</v>
       </c>
       <c r="N33" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="O33" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P33" s="1">
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q33" s="1">
         <v>978</v>
@@ -2161,10 +2150,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -2173,34 +2162,34 @@
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <v>138181178</v>
+        <v>133809230</v>
       </c>
       <c r="G34" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H34" s="2">
-        <v>7714085</v>
+        <v>7763343</v>
       </c>
       <c r="I34" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J34" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L34" s="1">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="M34" s="1">
-        <v>96.8</v>
+        <v>96.2</v>
       </c>
       <c r="N34" s="1">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O34" s="1">
         <v>0.2</v>
       </c>
       <c r="P34" s="1">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q34" s="1">
         <v>978</v>
@@ -2208,10 +2197,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -2220,34 +2209,34 @@
         <v>2</v>
       </c>
       <c r="F35" s="2">
-        <v>138128841</v>
+        <v>133745214</v>
       </c>
       <c r="G35" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H35" s="2">
-        <v>7712252</v>
+        <v>7762333</v>
       </c>
       <c r="I35" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J35" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L35" s="1">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="M35" s="1">
-        <v>97</v>
+        <v>96.4</v>
       </c>
       <c r="N35" s="1">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O35" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P35" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q35" s="1">
         <v>978</v>
@@ -2255,10 +2244,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -2267,34 +2256,34 @@
         <v>3</v>
       </c>
       <c r="F36" s="2">
-        <v>138120607</v>
+        <v>133725236</v>
       </c>
       <c r="G36" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H36" s="2">
-        <v>7712364</v>
+        <v>7762389</v>
       </c>
       <c r="I36" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J36" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L36" s="1">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="M36" s="1">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="N36" s="1">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O36" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P36" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Q36" s="1">
         <v>978</v>
@@ -2302,10 +2291,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
@@ -2314,34 +2303,34 @@
         <v>1</v>
       </c>
       <c r="F37" s="2">
-        <v>133809230</v>
+        <v>169798436</v>
       </c>
       <c r="G37" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H37" s="2">
-        <v>7763343</v>
+        <v>4170927</v>
       </c>
       <c r="I37" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J37" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L37" s="1">
-        <v>98.2</v>
+        <v>97.4</v>
       </c>
       <c r="M37" s="1">
-        <v>96.2</v>
+        <v>95.5</v>
       </c>
       <c r="N37" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O37" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P37" s="1">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q37" s="1">
         <v>978</v>
@@ -2349,10 +2338,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -2361,34 +2350,34 @@
         <v>2</v>
       </c>
       <c r="F38" s="2">
-        <v>133745214</v>
+        <v>169744371</v>
       </c>
       <c r="G38" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H38" s="2">
-        <v>7762333</v>
+        <v>4170025</v>
       </c>
       <c r="I38" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J38" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L38" s="1">
-        <v>98.5</v>
+        <v>97.7</v>
       </c>
       <c r="M38" s="1">
-        <v>96.4</v>
+        <v>95.6</v>
       </c>
       <c r="N38" s="1">
         <v>2.1</v>
       </c>
       <c r="O38" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P38" s="1">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q38" s="1">
         <v>978</v>
@@ -2396,10 +2385,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
@@ -2408,34 +2397,34 @@
         <v>3</v>
       </c>
       <c r="F39" s="2">
-        <v>133725236</v>
+        <v>169714588</v>
       </c>
       <c r="G39" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H39" s="2">
-        <v>7762389</v>
+        <v>4170062</v>
       </c>
       <c r="I39" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J39" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L39" s="1">
-        <v>98.6</v>
+        <v>97.7</v>
       </c>
       <c r="M39" s="1">
-        <v>96.5</v>
+        <v>95.7</v>
       </c>
       <c r="N39" s="1">
+        <v>2</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P39" s="1">
         <v>2.1</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P39" s="1">
-        <v>1.3</v>
       </c>
       <c r="Q39" s="1">
         <v>978</v>
@@ -2443,10 +2432,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
@@ -2455,34 +2444,34 @@
         <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>169798436</v>
+        <v>195198068</v>
       </c>
       <c r="G40" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H40" s="2">
-        <v>4170927</v>
+        <v>1518469</v>
       </c>
       <c r="I40" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="J40" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L40" s="1">
-        <v>97.4</v>
+        <v>97.1</v>
       </c>
       <c r="M40" s="1">
-        <v>95.5</v>
+        <v>94.3</v>
       </c>
       <c r="N40" s="1">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="O40" s="1">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="P40" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="Q40" s="1">
         <v>978</v>
@@ -2490,10 +2479,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
@@ -2502,34 +2491,34 @@
         <v>2</v>
       </c>
       <c r="F41" s="2">
-        <v>169744371</v>
+        <v>195040579</v>
       </c>
       <c r="G41" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H41" s="2">
-        <v>4170025</v>
+        <v>1516375</v>
       </c>
       <c r="I41" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="J41" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L41" s="1">
-        <v>97.7</v>
+        <v>98.1</v>
       </c>
       <c r="M41" s="1">
-        <v>95.6</v>
+        <v>94.9</v>
       </c>
       <c r="N41" s="1">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O41" s="1">
         <v>0.2</v>
       </c>
       <c r="P41" s="1">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q41" s="1">
         <v>978</v>
@@ -2537,10 +2526,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
@@ -2549,34 +2538,34 @@
         <v>3</v>
       </c>
       <c r="F42" s="2">
-        <v>169714588</v>
+        <v>194955081</v>
       </c>
       <c r="G42" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H42" s="2">
-        <v>4170062</v>
+        <v>1515988</v>
       </c>
       <c r="I42" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="J42" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L42" s="1">
-        <v>97.7</v>
+        <v>98.1</v>
       </c>
       <c r="M42" s="1">
-        <v>95.7</v>
+        <v>94.9</v>
       </c>
       <c r="N42" s="1">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O42" s="1">
         <v>0.2</v>
       </c>
       <c r="P42" s="1">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q42" s="1">
         <v>978</v>
@@ -2584,10 +2573,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
@@ -2595,35 +2584,35 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="2">
-        <v>195198068</v>
+      <c r="F43" s="1">
+        <v>143327013</v>
       </c>
       <c r="G43" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H43" s="2">
-        <v>1518469</v>
+        <v>5229310</v>
       </c>
       <c r="I43" s="2">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="J43" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L43" s="1">
-        <v>97.1</v>
+        <v>98.1</v>
       </c>
       <c r="M43" s="1">
-        <v>94.3</v>
+        <v>96.6</v>
       </c>
       <c r="N43" s="1">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O43" s="1">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="P43" s="1">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q43" s="1">
         <v>978</v>
@@ -2631,10 +2620,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -2643,34 +2632,34 @@
         <v>2</v>
       </c>
       <c r="F44" s="2">
-        <v>195040579</v>
+        <v>143261903</v>
       </c>
       <c r="G44" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H44" s="2">
-        <v>1516375</v>
+        <v>5228008</v>
       </c>
       <c r="I44" s="2">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="J44" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L44" s="1">
-        <v>98.1</v>
+        <v>98.4</v>
       </c>
       <c r="M44" s="1">
-        <v>94.9</v>
+        <v>96.8</v>
       </c>
       <c r="N44" s="1">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="O44" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P44" s="1">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q44" s="1">
         <v>978</v>
@@ -2678,10 +2667,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -2690,177 +2679,36 @@
         <v>3</v>
       </c>
       <c r="F45" s="2">
-        <v>194955081</v>
+        <v>143252825</v>
       </c>
       <c r="G45" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H45" s="2">
-        <v>1515988</v>
+        <v>5227393</v>
       </c>
       <c r="I45" s="2">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="J45" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L45" s="1">
-        <v>98.1</v>
+        <v>98.4</v>
       </c>
       <c r="M45" s="1">
-        <v>94.9</v>
+        <v>96.8</v>
       </c>
       <c r="N45" s="1">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="O45" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P45" s="1">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q45" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>143327013</v>
-      </c>
-      <c r="G46" s="2">
-        <v>111</v>
-      </c>
-      <c r="H46" s="2">
-        <v>5229310</v>
-      </c>
-      <c r="I46" s="2">
-        <v>68</v>
-      </c>
-      <c r="J46" s="2">
-        <v>34</v>
-      </c>
-      <c r="L46" s="1">
-        <v>98.1</v>
-      </c>
-      <c r="M46" s="1">
-        <v>96.6</v>
-      </c>
-      <c r="N46" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="O46" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P46" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="F47" s="2">
-        <v>143261903</v>
-      </c>
-      <c r="G47" s="2">
-        <v>111</v>
-      </c>
-      <c r="H47" s="2">
-        <v>5228008</v>
-      </c>
-      <c r="I47" s="2">
-        <v>68</v>
-      </c>
-      <c r="J47" s="2">
-        <v>34</v>
-      </c>
-      <c r="L47" s="1">
-        <v>98.4</v>
-      </c>
-      <c r="M47" s="1">
-        <v>96.8</v>
-      </c>
-      <c r="N47" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O47" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P47" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="F48" s="2">
-        <v>143252825</v>
-      </c>
-      <c r="G48" s="2">
-        <v>111</v>
-      </c>
-      <c r="H48" s="2">
-        <v>5227393</v>
-      </c>
-      <c r="I48" s="2">
-        <v>68</v>
-      </c>
-      <c r="J48" s="2">
-        <v>34</v>
-      </c>
-      <c r="L48" s="1">
-        <v>98.4</v>
-      </c>
-      <c r="M48" s="1">
-        <v>96.8</v>
-      </c>
-      <c r="N48" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P48" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Q48" s="1">
         <v>978</v>
       </c>
     </row>
